--- a/Code/Results/Cases/Case_1_219/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_219/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.09227384478647</v>
+        <v>18.24320417504335</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.439446063285367</v>
+        <v>11.88889642918189</v>
       </c>
       <c r="E2">
-        <v>15.95799397545502</v>
+        <v>19.19262242179203</v>
       </c>
       <c r="F2">
-        <v>15.59754357073827</v>
+        <v>28.40545309357876</v>
       </c>
       <c r="G2">
-        <v>18.84075489200682</v>
+        <v>26.04254107494291</v>
       </c>
       <c r="H2">
-        <v>7.598171925725246</v>
+        <v>13.62968735419056</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.63853272073931</v>
+        <v>12.97827851689713</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.41834365763022</v>
+        <v>10.59000308111557</v>
       </c>
       <c r="M2">
-        <v>16.88579175569437</v>
+        <v>16.71809221142846</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.14430643108098</v>
+        <v>20.37953145616504</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.87537513549465</v>
+        <v>17.83824278508632</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.503102685461245</v>
+        <v>11.9309676415068</v>
       </c>
       <c r="E3">
-        <v>15.64554327476418</v>
+        <v>19.14996887570773</v>
       </c>
       <c r="F3">
-        <v>15.84470680888144</v>
+        <v>28.61078416781668</v>
       </c>
       <c r="G3">
-        <v>18.32008890329843</v>
+        <v>26.15305005312597</v>
       </c>
       <c r="H3">
-        <v>7.664154362750912</v>
+        <v>13.69275343806041</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.42455836888604</v>
+        <v>12.94386836566156</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.60230491039477</v>
+        <v>10.24369947362223</v>
       </c>
       <c r="M3">
-        <v>15.9031656503721</v>
+        <v>16.40677172382593</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.12009637518831</v>
+        <v>20.48416991981414</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.08995302209653</v>
+        <v>17.58540890654488</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.545869374280866</v>
+        <v>11.95869770348855</v>
       </c>
       <c r="E4">
-        <v>15.45645299840091</v>
+        <v>19.12687772781009</v>
       </c>
       <c r="F4">
-        <v>16.02384464003776</v>
+        <v>28.74566884030216</v>
       </c>
       <c r="G4">
-        <v>18.03151388739413</v>
+        <v>26.23309376239157</v>
       </c>
       <c r="H4">
-        <v>7.712366080821875</v>
+        <v>13.73435113134262</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.29405159336133</v>
+        <v>12.92435194663764</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.07452105360051</v>
+        <v>10.02398921359287</v>
       </c>
       <c r="M4">
-        <v>15.26943715237855</v>
+        <v>16.21239387404703</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.12330287395608</v>
+        <v>20.55439676050287</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.76038402014272</v>
+        <v>17.48144561631317</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.564210368483789</v>
+        <v>11.97047613013346</v>
       </c>
       <c r="E5">
-        <v>15.38017587857891</v>
+        <v>19.118256011363</v>
       </c>
       <c r="F5">
-        <v>16.10329185624962</v>
+        <v>28.80284577887337</v>
       </c>
       <c r="G5">
-        <v>17.92175620176545</v>
+        <v>26.26875406542752</v>
       </c>
       <c r="H5">
-        <v>7.733859391222469</v>
+        <v>13.75202477141058</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.24114539743375</v>
+        <v>12.91681015458692</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.85278121494252</v>
+        <v>9.93277575573252</v>
       </c>
       <c r="M5">
-        <v>15.00365574345822</v>
+        <v>16.13245081444735</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.12895149593455</v>
+        <v>20.58451258227465</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.70508944232435</v>
+        <v>17.46412998307131</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.567310681492587</v>
+        <v>11.97246083737337</v>
       </c>
       <c r="E6">
-        <v>15.36755967974466</v>
+        <v>19.11687223513549</v>
       </c>
       <c r="F6">
-        <v>16.1168610602441</v>
+        <v>28.81247331764443</v>
       </c>
       <c r="G6">
-        <v>17.90400381489585</v>
+        <v>26.27485843371378</v>
       </c>
       <c r="H6">
-        <v>7.737537333675753</v>
+        <v>13.75500306839653</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.23237873659985</v>
+        <v>12.91558285966623</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.81556117189123</v>
+        <v>9.917531498697628</v>
       </c>
       <c r="M6">
-        <v>14.95907192034354</v>
+        <v>16.11913444144905</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.13014561838175</v>
+        <v>20.58960359399037</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.08554663958866</v>
+        <v>17.58401042850288</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.546113045691643</v>
+        <v>11.95885461406578</v>
       </c>
       <c r="E7">
-        <v>15.45542103138638</v>
+        <v>19.12675824978082</v>
       </c>
       <c r="F7">
-        <v>16.02489054973123</v>
+        <v>28.74643100562201</v>
       </c>
       <c r="G7">
-        <v>18.0300019383725</v>
+        <v>26.23356240568613</v>
       </c>
       <c r="H7">
-        <v>7.712648585311195</v>
+        <v>13.7345865607808</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.29333688708247</v>
+        <v>12.92424856222221</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.07155747976783</v>
+        <v>10.02276573863663</v>
       </c>
       <c r="M7">
-        <v>15.26588305759639</v>
+        <v>16.21131859394611</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.12336174612688</v>
+        <v>20.55479685574445</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.68068047849772</v>
+        <v>18.10451322303162</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.460623112020508</v>
+        <v>11.90300915375353</v>
       </c>
       <c r="E8">
-        <v>15.8497400040973</v>
+        <v>19.17727799367234</v>
       </c>
       <c r="F8">
-        <v>15.67681276074292</v>
+        <v>28.47441948481815</v>
       </c>
       <c r="G8">
-        <v>18.65479622861301</v>
+        <v>26.0781006103791</v>
       </c>
       <c r="H8">
-        <v>7.619270199912617</v>
+        <v>13.65083546118981</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.56460626277707</v>
+        <v>12.96608313761584</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.14255034578444</v>
+        <v>10.47212382213213</v>
       </c>
       <c r="M8">
-        <v>16.55334653202859</v>
+        <v>16.61146471494086</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.13208919540895</v>
+        <v>20.41436669013957</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.50213122801541</v>
+        <v>19.0869782919907</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.322781678278083</v>
+        <v>11.80851784806463</v>
       </c>
       <c r="E9">
-        <v>16.64120710361757</v>
+        <v>19.30051285756823</v>
       </c>
       <c r="F9">
-        <v>15.23214713156233</v>
+        <v>28.01114802929864</v>
       </c>
       <c r="G9">
-        <v>20.12381575407194</v>
+        <v>25.8709524797254</v>
       </c>
       <c r="H9">
-        <v>7.501401537679281</v>
+        <v>13.50944026299988</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.10112787117651</v>
+        <v>13.06063077096247</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>15.02911883283224</v>
+        <v>11.29323725855716</v>
       </c>
       <c r="M9">
-        <v>18.83360108408086</v>
+        <v>17.36725388453422</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.30107669502588</v>
+        <v>20.18666293807544</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.38594657057916</v>
+        <v>19.77920188052691</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.240553990186199</v>
+        <v>11.74819858578922</v>
       </c>
       <c r="E10">
-        <v>17.22915183492556</v>
+        <v>19.4051951636506</v>
       </c>
       <c r="F10">
-        <v>15.08001863917699</v>
+        <v>27.71387113934218</v>
       </c>
       <c r="G10">
-        <v>21.34511675513771</v>
+        <v>25.77955979127447</v>
       </c>
       <c r="H10">
-        <v>7.460520641207855</v>
+        <v>13.4195220208525</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.49511805343014</v>
+        <v>13.13733624137008</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>16.28407478356665</v>
+        <v>11.85529636341033</v>
       </c>
       <c r="M10">
-        <v>20.35722839648377</v>
+        <v>17.9007339249693</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.52840839425526</v>
+        <v>20.0487645552482</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.20188323826086</v>
+        <v>20.08649119613278</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.207488880695164</v>
+        <v>11.72272319660762</v>
       </c>
       <c r="E11">
-        <v>17.49713183626275</v>
+        <v>19.45575269437038</v>
       </c>
       <c r="F11">
-        <v>15.05525265379115</v>
+        <v>27.58806293241884</v>
       </c>
       <c r="G11">
-        <v>21.92972734447054</v>
+        <v>25.75140991807952</v>
       </c>
       <c r="H11">
-        <v>7.453187005148071</v>
+        <v>13.38165732483242</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.67375196755083</v>
+        <v>13.17371691347814</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>16.8266032566101</v>
+        <v>12.10124450328066</v>
       </c>
       <c r="M11">
-        <v>21.02297839235272</v>
+        <v>18.13788142507324</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.65616958624192</v>
+        <v>19.9924831193159</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.50497984563308</v>
+        <v>20.20166938665173</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.195610682776234</v>
+        <v>11.71335790087348</v>
       </c>
       <c r="E12">
-        <v>17.59861660862201</v>
+        <v>19.47530762121273</v>
       </c>
       <c r="F12">
-        <v>15.05279961176126</v>
+        <v>27.54178459625431</v>
       </c>
       <c r="G12">
-        <v>22.1551208252545</v>
+        <v>25.74269618544597</v>
       </c>
       <c r="H12">
-        <v>7.452142934905355</v>
+        <v>13.36775688834087</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.7412689154505</v>
+        <v>13.18769940785061</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>17.02798574532599</v>
+        <v>12.19292244211014</v>
       </c>
       <c r="M12">
-        <v>21.2820332186812</v>
+        <v>18.2268242464324</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.70818519654645</v>
+        <v>19.97210382119369</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.43996368334052</v>
+        <v>20.1769178197577</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.198139965873808</v>
+        <v>11.7153623690567</v>
       </c>
       <c r="E13">
-        <v>17.57676077352451</v>
+        <v>19.47107809076508</v>
       </c>
       <c r="F13">
-        <v>15.05301154601549</v>
+        <v>27.55169074840055</v>
       </c>
       <c r="G13">
-        <v>22.10640223348683</v>
+        <v>25.74448607091255</v>
       </c>
       <c r="H13">
-        <v>7.452288894140674</v>
+        <v>13.37073109497534</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.72673424554694</v>
+        <v>13.18467899695823</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>16.98479469800261</v>
+        <v>12.17324360927861</v>
       </c>
       <c r="M13">
-        <v>21.22647948873468</v>
+        <v>18.20770803158408</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.69681907914992</v>
+        <v>19.97645126834678</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.22693688631735</v>
+        <v>20.09599123735369</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.206498659924677</v>
+        <v>11.72194706710857</v>
       </c>
       <c r="E14">
-        <v>17.505481286232</v>
+        <v>19.45735334805489</v>
       </c>
       <c r="F14">
-        <v>15.05490903153498</v>
+        <v>27.58422823692294</v>
       </c>
       <c r="G14">
-        <v>21.94819104044077</v>
+        <v>25.75065395210385</v>
       </c>
       <c r="H14">
-        <v>7.453065720996464</v>
+        <v>13.3805049414561</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.67930941645568</v>
+        <v>13.17486318066875</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>16.84325238488308</v>
+        <v>12.10881641210005</v>
       </c>
       <c r="M14">
-        <v>21.04439847946773</v>
+        <v>18.14521638736383</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.66037538117608</v>
+        <v>19.99078776502741</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.09568673581882</v>
+        <v>20.04626436356909</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.211702890786177</v>
+        <v>11.72601704556704</v>
       </c>
       <c r="E15">
-        <v>17.46181947963787</v>
+        <v>19.44899954942381</v>
       </c>
       <c r="F15">
-        <v>15.05698882755535</v>
+        <v>27.60433604529175</v>
       </c>
       <c r="G15">
-        <v>21.85180025468175</v>
+        <v>25.75468580825869</v>
       </c>
       <c r="H15">
-        <v>7.453770635120567</v>
+        <v>13.38654878892062</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.65024250900748</v>
+        <v>13.16887728911386</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>16.7560253666165</v>
+        <v>12.06916153061912</v>
       </c>
       <c r="M15">
-        <v>20.93216971756529</v>
+        <v>18.10682465477736</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.63852965560292</v>
+        <v>19.99969099362463</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.33179893147334</v>
+        <v>19.75895873086361</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.242803788425277</v>
+        <v>11.7499029208355</v>
       </c>
       <c r="E16">
-        <v>17.21164320450102</v>
+        <v>19.40194915581638</v>
       </c>
       <c r="F16">
-        <v>15.08257738202083</v>
+        <v>27.72228326343786</v>
       </c>
       <c r="G16">
-        <v>21.30748138588733</v>
+        <v>25.78167097402044</v>
       </c>
       <c r="H16">
-        <v>7.461236206554656</v>
+        <v>13.42205781809473</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.4834282252974</v>
+        <v>13.13498792982228</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>16.24804986344892</v>
+        <v>11.8390221081823</v>
       </c>
       <c r="M16">
-        <v>20.31342737314183</v>
+        <v>17.88511884734243</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.52056069655918</v>
+        <v>20.05257295846217</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.85268000393401</v>
+        <v>19.58069026434478</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.263007865442003</v>
+        <v>11.76505865297448</v>
       </c>
       <c r="E17">
-        <v>17.05825093818895</v>
+        <v>19.37382878277134</v>
       </c>
       <c r="F17">
-        <v>15.1100409445184</v>
+        <v>27.79705901296431</v>
       </c>
       <c r="G17">
-        <v>20.98087916453198</v>
+        <v>25.80167570961807</v>
       </c>
       <c r="H17">
-        <v>7.468780942372459</v>
+        <v>13.44462068049503</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.38090932130821</v>
+        <v>13.11457319871666</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>15.92916932778657</v>
+        <v>11.69530247513534</v>
       </c>
       <c r="M17">
-        <v>19.92587181066578</v>
+        <v>17.74764512547213</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.45452748992741</v>
+        <v>20.08667034135635</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.57324033764336</v>
+        <v>19.47744402368779</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.275036099429087</v>
+        <v>11.77396074891136</v>
       </c>
       <c r="E18">
-        <v>16.97007650450643</v>
+        <v>19.35793190796894</v>
       </c>
       <c r="F18">
-        <v>15.12998830305994</v>
+        <v>27.84095468089804</v>
       </c>
       <c r="G18">
-        <v>20.79576861768114</v>
+        <v>25.81444474772294</v>
       </c>
       <c r="H18">
-        <v>7.474173707566504</v>
+        <v>13.45788427836605</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.32188949765955</v>
+        <v>13.10297163225786</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>15.74308698168556</v>
+        <v>11.61172535772976</v>
       </c>
       <c r="M18">
-        <v>19.69984767608673</v>
+        <v>17.66805643781365</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.41883168555447</v>
+        <v>20.10688894126294</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.47796307811584</v>
+        <v>19.44236742794824</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.279178070495992</v>
+        <v>11.77700662906985</v>
       </c>
       <c r="E19">
-        <v>16.94023340261816</v>
+        <v>19.35259748450811</v>
       </c>
       <c r="F19">
-        <v>15.13743859175638</v>
+        <v>27.85596906239526</v>
       </c>
       <c r="G19">
-        <v>20.73356940459046</v>
+        <v>25.81898451138435</v>
       </c>
       <c r="H19">
-        <v>7.476177075690679</v>
+        <v>13.46242420101121</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.30189854694214</v>
+        <v>13.09906790043942</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>15.67962364132998</v>
+        <v>11.58327257186407</v>
       </c>
       <c r="M19">
-        <v>19.62278534142011</v>
+        <v>17.64102221535097</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.40713372713995</v>
+        <v>20.11383863043108</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.90408276966962</v>
+        <v>19.59974151281718</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.260814812660886</v>
+        <v>11.76342616645383</v>
       </c>
       <c r="E20">
-        <v>17.07457486411176</v>
+        <v>19.37679364209404</v>
       </c>
       <c r="F20">
-        <v>15.10668386829893</v>
+        <v>27.78900719146109</v>
       </c>
       <c r="G20">
-        <v>21.01536389241206</v>
+        <v>25.7994153525912</v>
       </c>
       <c r="H20">
-        <v>7.467867971418373</v>
+        <v>13.44218921427844</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.3918285086238</v>
+        <v>13.11673190253584</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>15.96339101966668</v>
+        <v>11.71069664538322</v>
       </c>
       <c r="M20">
-        <v>19.96744990332753</v>
+        <v>17.76233346585681</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.46131934607057</v>
+        <v>20.08297778404037</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.28966741155533</v>
+        <v>20.11979421008004</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.204025908191576</v>
+        <v>11.72000534295046</v>
       </c>
       <c r="E21">
-        <v>17.5264181335937</v>
+        <v>19.46137361480258</v>
       </c>
       <c r="F21">
-        <v>15.05415954769896</v>
+        <v>27.57463415097038</v>
       </c>
       <c r="G21">
-        <v>21.99455379576458</v>
+        <v>25.74878936904935</v>
       </c>
       <c r="H21">
-        <v>7.452789602321894</v>
+        <v>13.37762222767329</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.69324302348937</v>
+        <v>13.17774079911895</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>16.88493684208209</v>
+        <v>12.12778021406835</v>
       </c>
       <c r="M21">
-        <v>21.09802563535901</v>
+        <v>18.16359552137883</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.67098013861163</v>
+        <v>19.98655141376432</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.16096698451512</v>
+        <v>20.4527304277468</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.170667496709608</v>
+        <v>11.69326883106</v>
       </c>
       <c r="E22">
-        <v>17.82173513424203</v>
+        <v>19.51903458457909</v>
       </c>
       <c r="F22">
-        <v>15.06043374462996</v>
+        <v>27.44247420050456</v>
       </c>
       <c r="G22">
-        <v>22.65784267212116</v>
+        <v>25.72705082970124</v>
       </c>
       <c r="H22">
-        <v>7.453090067002571</v>
+        <v>13.3379780471521</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.88947325648489</v>
+        <v>13.2188101152312</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>17.46356148376351</v>
+        <v>12.39185251210248</v>
       </c>
       <c r="M22">
-        <v>21.84209918737518</v>
+        <v>18.4208051757893</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.82924423261271</v>
+        <v>19.92897360752177</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.69906319528237</v>
+        <v>20.27570039397403</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.188121344141531</v>
+        <v>11.70738866203236</v>
       </c>
       <c r="E23">
-        <v>17.66413871582325</v>
+        <v>19.48804601073997</v>
       </c>
       <c r="F23">
-        <v>15.05319736817665</v>
+        <v>27.5122810091512</v>
       </c>
       <c r="G23">
-        <v>22.30174831789147</v>
+        <v>25.73761016583937</v>
       </c>
       <c r="H23">
-        <v>7.45196263944357</v>
+        <v>13.3589028540041</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.78482400536213</v>
+        <v>13.19678383230357</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>17.15689583947462</v>
+        <v>12.2517085190633</v>
       </c>
       <c r="M23">
-        <v>21.44782124224012</v>
+        <v>18.28400859873192</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.74279260505214</v>
+        <v>19.95920407501575</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.88085600160874</v>
+        <v>19.59113079520747</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.261805007937677</v>
+        <v>11.76416362525156</v>
       </c>
       <c r="E24">
-        <v>17.06719477199363</v>
+        <v>19.37545238751287</v>
       </c>
       <c r="F24">
-        <v>15.10818869142378</v>
+        <v>27.7926445980482</v>
       </c>
       <c r="G24">
-        <v>20.99976505725017</v>
+        <v>25.80043331130606</v>
       </c>
       <c r="H24">
-        <v>7.468277447456813</v>
+        <v>13.44328757093878</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.3868921910096</v>
+        <v>13.11575553099716</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>15.94792797101504</v>
+        <v>11.70373989811419</v>
       </c>
       <c r="M24">
-        <v>19.9486624563944</v>
+        <v>17.7556945854192</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.45824169532682</v>
+        <v>20.08464527219237</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.77199788810085</v>
+        <v>18.82596362338881</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.356793724433418</v>
+        <v>11.83247770994064</v>
       </c>
       <c r="E25">
-        <v>16.42563995600127</v>
+        <v>19.26464638415603</v>
       </c>
       <c r="F25">
-        <v>15.32397877761181</v>
+        <v>28.1289329054661</v>
       </c>
       <c r="G25">
-        <v>19.70088177311145</v>
+        <v>25.91639674002795</v>
       </c>
       <c r="H25">
-        <v>7.52570223931342</v>
+        <v>13.54524205349108</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.95581506847224</v>
+        <v>13.03375258465188</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>14.54176687669832</v>
+        <v>11.07804388673443</v>
       </c>
       <c r="M25">
-        <v>18.24325827708838</v>
+        <v>17.16633207579774</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.23795254266889</v>
+        <v>20.24312420227339</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_219/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_219/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.24320417504335</v>
+        <v>20.09227384478645</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>11.88889642918189</v>
+        <v>7.439446063285292</v>
       </c>
       <c r="E2">
-        <v>19.19262242179203</v>
+        <v>15.95799397545489</v>
       </c>
       <c r="F2">
-        <v>28.40545309357876</v>
+        <v>15.59754357073819</v>
       </c>
       <c r="G2">
-        <v>26.04254107494291</v>
+        <v>18.84075489200669</v>
       </c>
       <c r="H2">
-        <v>13.62968735419056</v>
+        <v>7.598171925725311</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>12.97827851689713</v>
+        <v>10.63853272073924</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.59000308111557</v>
+        <v>13.41834365763022</v>
       </c>
       <c r="M2">
-        <v>16.71809221142846</v>
+        <v>16.88579175569434</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.37953145616504</v>
+        <v>12.14430643108098</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.83824278508632</v>
+        <v>18.87537513549464</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>11.9309676415068</v>
+        <v>7.503102685461186</v>
       </c>
       <c r="E3">
-        <v>19.14996887570773</v>
+        <v>15.64554327476415</v>
       </c>
       <c r="F3">
-        <v>28.61078416781668</v>
+        <v>15.84470680888137</v>
       </c>
       <c r="G3">
-        <v>26.15305005312597</v>
+        <v>18.32008890329833</v>
       </c>
       <c r="H3">
-        <v>13.69275343806041</v>
+        <v>7.664154362750907</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.94386836566156</v>
+        <v>10.42455836888602</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.24369947362223</v>
+        <v>12.60230491039473</v>
       </c>
       <c r="M3">
-        <v>16.40677172382593</v>
+        <v>15.90316565037211</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>20.48416991981414</v>
+        <v>12.12009637518825</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.58540890654488</v>
+        <v>18.08995302209653</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>11.95869770348855</v>
+        <v>7.545869374280545</v>
       </c>
       <c r="E4">
-        <v>19.12687772781009</v>
+        <v>15.45645299840083</v>
       </c>
       <c r="F4">
-        <v>28.74566884030216</v>
+        <v>16.02384464003757</v>
       </c>
       <c r="G4">
-        <v>26.23309376239157</v>
+        <v>18.03151388739409</v>
       </c>
       <c r="H4">
-        <v>13.73435113134262</v>
+        <v>7.712366080821749</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>12.92435194663764</v>
+        <v>10.29405159336136</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.02398921359287</v>
+        <v>12.07452105360056</v>
       </c>
       <c r="M4">
-        <v>16.21239387404703</v>
+        <v>15.26943715237856</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20.55439676050287</v>
+        <v>12.12330287395601</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.48144561631317</v>
+        <v>17.76038402014272</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>11.97047613013346</v>
+        <v>7.564210368483789</v>
       </c>
       <c r="E5">
-        <v>19.118256011363</v>
+        <v>15.38017587857888</v>
       </c>
       <c r="F5">
-        <v>28.80284577887337</v>
+        <v>16.10329185624962</v>
       </c>
       <c r="G5">
-        <v>26.26875406542752</v>
+        <v>17.92175620176546</v>
       </c>
       <c r="H5">
-        <v>13.75202477141058</v>
+        <v>7.733859391222461</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>12.91681015458692</v>
+        <v>10.2411453974337</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.93277575573252</v>
+        <v>11.85278121494253</v>
       </c>
       <c r="M5">
-        <v>16.13245081444735</v>
+        <v>15.00365574345823</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>20.58451258227465</v>
+        <v>12.12895149593455</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.46412998307131</v>
+        <v>17.70508944232439</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>11.97246083737337</v>
+        <v>7.567310681492595</v>
       </c>
       <c r="E6">
-        <v>19.11687223513549</v>
+        <v>15.36755967974475</v>
       </c>
       <c r="F6">
-        <v>28.81247331764443</v>
+        <v>16.11686106024397</v>
       </c>
       <c r="G6">
-        <v>26.27485843371378</v>
+        <v>17.90400381489576</v>
       </c>
       <c r="H6">
-        <v>13.75500306839653</v>
+        <v>7.737537333675701</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>12.91558285966623</v>
+        <v>10.2323787365999</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.917531498697628</v>
+        <v>11.81556117189129</v>
       </c>
       <c r="M6">
-        <v>16.11913444144905</v>
+        <v>14.95907192034357</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>20.58960359399037</v>
+        <v>12.13014561838167</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.58401042850288</v>
+        <v>18.08554663958867</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>11.95885461406578</v>
+        <v>7.546113045691717</v>
       </c>
       <c r="E7">
-        <v>19.12675824978082</v>
+        <v>15.45542103138646</v>
       </c>
       <c r="F7">
-        <v>28.74643100562201</v>
+        <v>16.02489054973125</v>
       </c>
       <c r="G7">
-        <v>26.23356240568613</v>
+        <v>18.0300019383726</v>
       </c>
       <c r="H7">
-        <v>13.7345865607808</v>
+        <v>7.712648585311137</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12.92424856222221</v>
+        <v>10.2933368870825</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.02276573863663</v>
+        <v>12.0715574797678</v>
       </c>
       <c r="M7">
-        <v>16.21131859394611</v>
+        <v>15.26588305759639</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>20.55479685574445</v>
+        <v>12.12336174612692</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.10451322303162</v>
+        <v>19.68068047849773</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>11.90300915375353</v>
+        <v>7.460623112020379</v>
       </c>
       <c r="E8">
-        <v>19.17727799367234</v>
+        <v>15.84974000409732</v>
       </c>
       <c r="F8">
-        <v>28.47441948481815</v>
+        <v>15.67681276074286</v>
       </c>
       <c r="G8">
-        <v>26.0781006103791</v>
+        <v>18.65479622861296</v>
       </c>
       <c r="H8">
-        <v>13.65083546118981</v>
+        <v>7.619270199912669</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>12.96608313761584</v>
+        <v>10.56460626277713</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.47212382213213</v>
+        <v>13.14255034578448</v>
       </c>
       <c r="M8">
-        <v>16.61146471494086</v>
+        <v>16.55334653202859</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.41436669013957</v>
+        <v>12.13208919540894</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.0869782919907</v>
+        <v>22.50213122801538</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>11.80851784806463</v>
+        <v>7.322781678278151</v>
       </c>
       <c r="E9">
-        <v>19.30051285756823</v>
+        <v>16.64120710361772</v>
       </c>
       <c r="F9">
-        <v>28.01114802929864</v>
+        <v>15.23214713156226</v>
       </c>
       <c r="G9">
-        <v>25.8709524797254</v>
+        <v>20.12381575407182</v>
       </c>
       <c r="H9">
-        <v>13.50944026299988</v>
+        <v>7.501401537679275</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>13.06063077096247</v>
+        <v>11.10112787117658</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.29323725855716</v>
+        <v>15.02911883283229</v>
       </c>
       <c r="M9">
-        <v>17.36725388453422</v>
+        <v>18.83360108408086</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.18666293807544</v>
+        <v>12.3010766950258</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.77920188052691</v>
+        <v>24.38594657057917</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.74819858578922</v>
+        <v>7.240553990186045</v>
       </c>
       <c r="E10">
-        <v>19.4051951636506</v>
+        <v>17.2291518349254</v>
       </c>
       <c r="F10">
-        <v>27.71387113934218</v>
+        <v>15.08001863917682</v>
       </c>
       <c r="G10">
-        <v>25.77955979127447</v>
+        <v>21.34511675513766</v>
       </c>
       <c r="H10">
-        <v>13.4195220208525</v>
+        <v>7.460520641207788</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>13.13733624137008</v>
+        <v>11.4951180534301</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.85529636341033</v>
+        <v>16.2840747835667</v>
       </c>
       <c r="M10">
-        <v>17.9007339249693</v>
+        <v>20.35722839648373</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.0487645552482</v>
+        <v>12.52840839425517</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.08649119613278</v>
+        <v>25.20188323826086</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.72272319660762</v>
+        <v>7.207488880695033</v>
       </c>
       <c r="E11">
-        <v>19.45575269437038</v>
+        <v>17.49713183626268</v>
       </c>
       <c r="F11">
-        <v>27.58806293241884</v>
+        <v>15.05525265379114</v>
       </c>
       <c r="G11">
-        <v>25.75140991807952</v>
+        <v>21.92972734447056</v>
       </c>
       <c r="H11">
-        <v>13.38165732483242</v>
+        <v>7.453187005148084</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>13.17371691347814</v>
+        <v>11.67375196755081</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.10124450328066</v>
+        <v>16.8266032566101</v>
       </c>
       <c r="M11">
-        <v>18.13788142507324</v>
+        <v>21.02297839235272</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.9924831193159</v>
+        <v>12.65616958624194</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.20166938665173</v>
+        <v>25.50497984563309</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.71335790087348</v>
+        <v>7.195610682776286</v>
       </c>
       <c r="E12">
-        <v>19.47530762121273</v>
+        <v>17.59861660862204</v>
       </c>
       <c r="F12">
-        <v>27.54178459625431</v>
+        <v>15.05279961176128</v>
       </c>
       <c r="G12">
-        <v>25.74269618544597</v>
+        <v>22.1551208252545</v>
       </c>
       <c r="H12">
-        <v>13.36775688834087</v>
+        <v>7.452142934905348</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>13.18769940785061</v>
+        <v>11.74126891545052</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.19292244211014</v>
+        <v>17.02798574532599</v>
       </c>
       <c r="M12">
-        <v>18.2268242464324</v>
+        <v>21.28203321868116</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.97210382119369</v>
+        <v>12.70818519654645</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.1769178197577</v>
+        <v>25.4399636833405</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.7153623690567</v>
+        <v>7.1981399658737</v>
       </c>
       <c r="E13">
-        <v>19.47107809076508</v>
+        <v>17.57676077352452</v>
       </c>
       <c r="F13">
-        <v>27.55169074840055</v>
+        <v>15.05301154601538</v>
       </c>
       <c r="G13">
-        <v>25.74448607091255</v>
+        <v>22.10640223348686</v>
       </c>
       <c r="H13">
-        <v>13.37073109497534</v>
+        <v>7.452288894140667</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>13.18467899695823</v>
+        <v>11.72673424554692</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.17324360927861</v>
+        <v>16.9847946980026</v>
       </c>
       <c r="M13">
-        <v>18.20770803158408</v>
+        <v>21.22647948873468</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.97645126834678</v>
+        <v>12.69681907914989</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.09599123735369</v>
+        <v>25.2269368863174</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.72194706710857</v>
+        <v>7.206498659924611</v>
       </c>
       <c r="E14">
-        <v>19.45735334805489</v>
+        <v>17.50548128623198</v>
       </c>
       <c r="F14">
-        <v>27.58422823692294</v>
+        <v>15.05490903153503</v>
       </c>
       <c r="G14">
-        <v>25.75065395210385</v>
+        <v>21.94819104044078</v>
       </c>
       <c r="H14">
-        <v>13.3805049414561</v>
+        <v>7.453065720996464</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>13.17486318066875</v>
+        <v>11.67930941645566</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.10881641210005</v>
+        <v>16.84325238488308</v>
       </c>
       <c r="M14">
-        <v>18.14521638736383</v>
+        <v>21.04439847946774</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.99078776502741</v>
+        <v>12.66037538117611</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.04626436356909</v>
+        <v>25.09568673581884</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.72601704556704</v>
+        <v>7.211702890786177</v>
       </c>
       <c r="E15">
-        <v>19.44899954942381</v>
+        <v>17.46181947963788</v>
       </c>
       <c r="F15">
-        <v>27.60433604529175</v>
+        <v>15.05698882755535</v>
       </c>
       <c r="G15">
-        <v>25.75468580825869</v>
+        <v>21.85180025468173</v>
       </c>
       <c r="H15">
-        <v>13.38654878892062</v>
+        <v>7.453770635120572</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>13.16887728911386</v>
+        <v>11.65024250900748</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.06916153061912</v>
+        <v>16.7560253666165</v>
       </c>
       <c r="M15">
-        <v>18.10682465477736</v>
+        <v>20.93216971756527</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.99969099362463</v>
+        <v>12.63852965560292</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.75895873086361</v>
+        <v>24.33179893147334</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.7499029208355</v>
+        <v>7.242803788425284</v>
       </c>
       <c r="E16">
-        <v>19.40194915581638</v>
+        <v>17.21164320450098</v>
       </c>
       <c r="F16">
-        <v>27.72228326343786</v>
+        <v>15.08257738202088</v>
       </c>
       <c r="G16">
-        <v>25.78167097402044</v>
+        <v>21.30748138588735</v>
       </c>
       <c r="H16">
-        <v>13.42205781809473</v>
+        <v>7.461236206554661</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>13.13498792982228</v>
+        <v>11.48342822529738</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.8390221081823</v>
+        <v>16.24804986344892</v>
       </c>
       <c r="M16">
-        <v>17.88511884734243</v>
+        <v>20.31342737314183</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.05257295846217</v>
+        <v>12.52056069655921</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.58069026434478</v>
+        <v>23.85268000393407</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.76505865297448</v>
+        <v>7.263007865441945</v>
       </c>
       <c r="E17">
-        <v>19.37382878277134</v>
+        <v>17.05825093818896</v>
       </c>
       <c r="F17">
-        <v>27.79705901296431</v>
+        <v>15.11004094451821</v>
       </c>
       <c r="G17">
-        <v>25.80167570961807</v>
+        <v>20.98087916453187</v>
       </c>
       <c r="H17">
-        <v>13.44462068049503</v>
+        <v>7.468780942372319</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>13.11457319871666</v>
+        <v>11.38090932130826</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.69530247513534</v>
+        <v>15.92916932778662</v>
       </c>
       <c r="M17">
-        <v>17.74764512547213</v>
+        <v>19.92587181066581</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.08667034135635</v>
+        <v>12.45452748992728</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.47744402368779</v>
+        <v>23.57324033764336</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.77396074891136</v>
+        <v>7.275036099428971</v>
       </c>
       <c r="E18">
-        <v>19.35793190796894</v>
+        <v>16.97007650450639</v>
       </c>
       <c r="F18">
-        <v>27.84095468089804</v>
+        <v>15.1299883030598</v>
       </c>
       <c r="G18">
-        <v>25.81444474772294</v>
+        <v>20.7957686176811</v>
       </c>
       <c r="H18">
-        <v>13.45788427836605</v>
+        <v>7.474173707566399</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>13.10297163225786</v>
+        <v>11.32188949765956</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.61172535772976</v>
+        <v>15.7430869816856</v>
       </c>
       <c r="M18">
-        <v>17.66805643781365</v>
+        <v>19.69984767608673</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.10688894126294</v>
+        <v>12.41883168555442</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.44236742794824</v>
+        <v>23.47796307811587</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.77700662906985</v>
+        <v>7.27917807049606</v>
       </c>
       <c r="E19">
-        <v>19.35259748450811</v>
+        <v>16.94023340261817</v>
       </c>
       <c r="F19">
-        <v>27.85596906239526</v>
+        <v>15.13743859175644</v>
       </c>
       <c r="G19">
-        <v>25.81898451138435</v>
+        <v>20.73356940459047</v>
       </c>
       <c r="H19">
-        <v>13.46242420101121</v>
+        <v>7.476177075690672</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>13.09906790043942</v>
+        <v>11.3018985469421</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.58327257186407</v>
+        <v>15.67962364133001</v>
       </c>
       <c r="M19">
-        <v>17.64102221535097</v>
+        <v>19.62278534142013</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.11383863043108</v>
+        <v>12.40713372713997</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.59974151281718</v>
+        <v>23.9040827696696</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.76342616645383</v>
+        <v>7.260814812660834</v>
       </c>
       <c r="E20">
-        <v>19.37679364209404</v>
+        <v>17.07457486411178</v>
       </c>
       <c r="F20">
-        <v>27.78900719146109</v>
+        <v>15.10668386829886</v>
       </c>
       <c r="G20">
-        <v>25.7994153525912</v>
+        <v>21.01536389241201</v>
       </c>
       <c r="H20">
-        <v>13.44218921427844</v>
+        <v>7.467867971418368</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>13.11673190253584</v>
+        <v>11.39182850862383</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.71069664538322</v>
+        <v>15.96339101966668</v>
       </c>
       <c r="M20">
-        <v>17.76233346585681</v>
+        <v>19.96744990332754</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.08297778404037</v>
+        <v>12.46131934607056</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.11979421008004</v>
+        <v>25.28966741155537</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.72000534295046</v>
+        <v>7.204025908191477</v>
       </c>
       <c r="E21">
-        <v>19.46137361480258</v>
+        <v>17.52641813359372</v>
       </c>
       <c r="F21">
-        <v>27.57463415097038</v>
+        <v>15.05415954769901</v>
       </c>
       <c r="G21">
-        <v>25.74878936904935</v>
+        <v>21.99455379576455</v>
       </c>
       <c r="H21">
-        <v>13.37762222767329</v>
+        <v>7.452789602321923</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>13.17774079911895</v>
+        <v>11.69324302348941</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.12778021406835</v>
+        <v>16.8849368420821</v>
       </c>
       <c r="M21">
-        <v>18.16359552137883</v>
+        <v>21.09802563535902</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.98655141376432</v>
+        <v>12.6709801386117</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.4527304277468</v>
+        <v>26.16096698451509</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.69326883106</v>
+        <v>7.170667496709557</v>
       </c>
       <c r="E22">
-        <v>19.51903458457909</v>
+        <v>17.8217351342421</v>
       </c>
       <c r="F22">
-        <v>27.44247420050456</v>
+        <v>15.06043374463003</v>
       </c>
       <c r="G22">
-        <v>25.72705082970124</v>
+        <v>22.65784267212119</v>
       </c>
       <c r="H22">
-        <v>13.3379780471521</v>
+        <v>7.453090067002602</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>13.2188101152312</v>
+        <v>11.88947325648497</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.39185251210248</v>
+        <v>17.46356148376353</v>
       </c>
       <c r="M22">
-        <v>18.4208051757893</v>
+        <v>21.84209918737518</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.92897360752177</v>
+        <v>12.82924423261276</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.27570039397403</v>
+        <v>25.69906319528236</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.70738866203236</v>
+        <v>7.188121344141472</v>
       </c>
       <c r="E23">
-        <v>19.48804601073997</v>
+        <v>17.66413871582328</v>
       </c>
       <c r="F23">
-        <v>27.5122810091512</v>
+        <v>15.05319736817667</v>
       </c>
       <c r="G23">
-        <v>25.73761016583937</v>
+        <v>22.30174831789149</v>
       </c>
       <c r="H23">
-        <v>13.3589028540041</v>
+        <v>7.451962639443575</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>13.19678383230357</v>
+        <v>11.78482400536215</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.2517085190633</v>
+        <v>17.15689583947459</v>
       </c>
       <c r="M23">
-        <v>18.28400859873192</v>
+        <v>21.44782124224013</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.95920407501575</v>
+        <v>12.74279260505216</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.59113079520747</v>
+        <v>23.88085600160876</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.76416362525156</v>
+        <v>7.261805007937497</v>
       </c>
       <c r="E24">
-        <v>19.37545238751287</v>
+        <v>17.0671947719936</v>
       </c>
       <c r="F24">
-        <v>27.7926445980482</v>
+        <v>15.1081886914237</v>
       </c>
       <c r="G24">
-        <v>25.80043331130606</v>
+        <v>20.99976505725014</v>
       </c>
       <c r="H24">
-        <v>13.44328757093878</v>
+        <v>7.468277447456813</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>13.11575553099716</v>
+        <v>11.38689219100961</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.70373989811419</v>
+        <v>15.94792797101501</v>
       </c>
       <c r="M24">
-        <v>17.7556945854192</v>
+        <v>19.94866245639438</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.08464527219237</v>
+        <v>12.4582416953268</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.82596362338881</v>
+        <v>21.7719978881008</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>11.83247770994064</v>
+        <v>7.356793724433469</v>
       </c>
       <c r="E25">
-        <v>19.26464638415603</v>
+        <v>16.42563995600124</v>
       </c>
       <c r="F25">
-        <v>28.1289329054661</v>
+        <v>15.32397877761183</v>
       </c>
       <c r="G25">
-        <v>25.91639674002795</v>
+        <v>19.70088177311151</v>
       </c>
       <c r="H25">
-        <v>13.54524205349108</v>
+        <v>7.525702239313424</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>13.03375258465188</v>
+        <v>10.95581506847222</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.07804388673443</v>
+        <v>14.5417668766983</v>
       </c>
       <c r="M25">
-        <v>17.16633207579774</v>
+        <v>18.24325827708833</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.24312420227339</v>
+        <v>12.23795254266893</v>
       </c>
     </row>
   </sheetData>
